--- a/Resultados/Escenario 6/costo_merma.xlsx
+++ b/Resultados/Escenario 6/costo_merma.xlsx
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>5.63645130569057e-13</v>
       </c>
     </row>
     <row r="279">

--- a/Resultados/Escenario 6/costo_merma.xlsx
+++ b/Resultados/Escenario 6/costo_merma.xlsx
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>3.468585418886505e-13</v>
       </c>
     </row>
     <row r="222">
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>5.63645130569057e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
